--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\doc_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1A089-C762-483B-8EC0-26E353CFA0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FE6C8-0623-4164-AABB-2A851D2EDF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O17"/>
+  <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -429,8 +445,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -447,8 +466,11 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -465,8 +487,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -485,8 +510,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -501,7 +529,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -516,7 +544,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -531,7 +559,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -548,7 +576,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -563,7 +591,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -578,7 +606,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -595,7 +623,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -612,7 +640,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -627,7 +655,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -642,7 +670,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>

--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\doc_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FE6C8-0623-4164-AABB-2A851D2EDF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6830830-3215-4FD0-9883-8E9E24BB16B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q17"/>
+  <dimension ref="B2:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -700,6 +700,31 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="R25">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
